--- a/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 21,93</t>
+          <t>8,61; 21,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 9,27</t>
+          <t>0,76; 9,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,95; 294,48</t>
+          <t>65,53; 277,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 161,97</t>
+          <t>6,46; 142,42</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 15,15</t>
+          <t>4,23; 14,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 16,33</t>
+          <t>7,4; 16,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,38</t>
+          <t>7,69; 16,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 110,58</t>
+          <t>22,11; 109,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,01; 224,48</t>
+          <t>67,16; 222,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 179,83</t>
+          <t>52,89; 174,28</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 13,14</t>
+          <t>2,12; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 14,66</t>
+          <t>4,63; 14,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,63</t>
+          <t>3,12; 13,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 150,78</t>
+          <t>13,95; 155,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,33; 299,21</t>
+          <t>52,86; 289,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 92,91</t>
+          <t>16,18; 101,94</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,28</t>
+          <t>8,32; 16,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 18,76</t>
+          <t>7,84; 19,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 13,2</t>
+          <t>-0,29; 12,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,78; 196,85</t>
+          <t>71,43; 197,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,2; 234,61</t>
+          <t>63,14; 237,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 87,48</t>
+          <t>-1,9; 78,92</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 29,46</t>
+          <t>12,88; 28,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 18,24</t>
+          <t>3,89; 17,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 13,62</t>
+          <t>3,17; 14,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,01; 303,44</t>
+          <t>72,85; 307,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 192,89</t>
+          <t>18,94; 191,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,76; 217,9</t>
+          <t>29,49; 230,81</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,71</t>
+          <t>0,64; 14,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 15,78</t>
+          <t>3,27; 16,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 17,14</t>
+          <t>4,67; 16,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 99,2</t>
+          <t>2,87; 103,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 154,9</t>
+          <t>16,9; 155,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,32; 110,22</t>
+          <t>22,33; 103,63</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,92</t>
+          <t>5,36; 13,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,95</t>
+          <t>4,82; 12,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 17,72</t>
+          <t>0,8; 17,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,29; 172,51</t>
+          <t>47,9; 168,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,95; 199,7</t>
+          <t>52,2; 205,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 136,94</t>
+          <t>8,6; 132,52</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,3</t>
+          <t>3,93; 11,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,84</t>
+          <t>4,76; 12,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,32</t>
+          <t>8,77; 15,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,34; 124,96</t>
+          <t>30,08; 126,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,74; 153,03</t>
+          <t>43,39; 157,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100,52; 264,6</t>
+          <t>97,42; 266,2</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,6</t>
+          <t>8,12; 11,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,0</t>
+          <t>8,42; 11,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,14</t>
+          <t>8,01; 12,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,17; 106,61</t>
+          <t>64,17; 106,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>86,27; 138,34</t>
+          <t>83,12; 137,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>61,19; 106,28</t>
+          <t>61,23; 106,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 21,1</t>
+          <t>8,12; 21,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,53; 277,19</t>
+          <t>59,43; 271,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 14,81</t>
+          <t>3,9; 15,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 16,3</t>
+          <t>7,47; 16,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,11; 109,5</t>
+          <t>19,44; 104,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,16; 222,65</t>
+          <t>69,34; 227,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,58</t>
+          <t>1,74; 13,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,85</t>
+          <t>4,28; 14,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 155,23</t>
+          <t>9,8; 157,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,86; 289,43</t>
+          <t>48,32; 301,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 16,33</t>
+          <t>8,47; 16,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,17</t>
+          <t>8,22; 19,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,43; 197,95</t>
+          <t>71,6; 202,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,14; 237,41</t>
+          <t>69,6; 255,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,88; 28,97</t>
+          <t>12,35; 28,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 17,83</t>
+          <t>3,64; 17,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,85; 307,01</t>
+          <t>66,47; 283,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,94; 191,26</t>
+          <t>19,39; 190,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 14,23</t>
+          <t>0,06; 13,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 16,25</t>
+          <t>3,29; 16,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 103,79</t>
+          <t>0,65; 100,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,9; 155,53</t>
+          <t>20,31; 164,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,09</t>
+          <t>5,43; 12,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,2</t>
+          <t>4,69; 11,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,9; 168,09</t>
+          <t>50,16; 177,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,2; 205,16</t>
+          <t>49,54; 192,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,36</t>
+          <t>3,81; 11,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,08</t>
+          <t>4,84; 11,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,08; 126,56</t>
+          <t>29,29; 124,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,39; 157,45</t>
+          <t>39,2; 150,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,73</t>
+          <t>7,95; 11,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,96</t>
+          <t>8,63; 12,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>64,17; 106,39</t>
+          <t>61,81; 105,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>83,12; 137,77</t>
+          <t>86,46; 141,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 21,32</t>
+          <t>8,73; 21,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,0</t>
+          <t>0,56; 9,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,43; 271,87</t>
+          <t>62,95; 294,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 142,42</t>
+          <t>6,27; 161,97</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 15,02</t>
+          <t>3,61; 15,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,12</t>
+          <t>7,16; 16,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 16,1</t>
+          <t>7,48; 16,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,44; 104,66</t>
+          <t>17,79; 110,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,34; 227,68</t>
+          <t>62,01; 224,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 174,28</t>
+          <t>52,89; 179,83</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 13,73</t>
+          <t>0,89; 13,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,93</t>
+          <t>4,43; 14,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 13,33</t>
+          <t>2,29; 12,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 157,44</t>
+          <t>4,71; 150,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,32; 301,81</t>
+          <t>46,33; 299,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 101,94</t>
+          <t>12,67; 92,91</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,47</t>
+          <t>8,43; 16,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 19,31</t>
+          <t>8,06; 18,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,7</t>
+          <t>-0,68; 13,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,6; 202,35</t>
+          <t>71,78; 196,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,6; 255,57</t>
+          <t>65,2; 234,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 78,92</t>
+          <t>-2,73; 87,48</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,35; 28,76</t>
+          <t>13,78; 29,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 17,84</t>
+          <t>3,33; 18,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 14,26</t>
+          <t>2,77; 13,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,47; 283,56</t>
+          <t>77,01; 303,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 190,57</t>
+          <t>19,09; 192,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 230,81</t>
+          <t>26,76; 217,9</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 13,65</t>
+          <t>0,37; 13,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 16,02</t>
+          <t>2,42; 15,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 16,39</t>
+          <t>5,36; 17,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 100,64</t>
+          <t>1,68; 99,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,31; 164,67</t>
+          <t>14,77; 154,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 103,63</t>
+          <t>23,32; 110,22</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,98</t>
+          <t>5,02; 12,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,86</t>
+          <t>4,93; 11,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 17,35</t>
+          <t>0,05; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,16; 177,83</t>
+          <t>43,29; 172,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,54; 192,64</t>
+          <t>54,95; 199,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 132,52</t>
+          <t>9,02; 136,94</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,02</t>
+          <t>3,91; 11,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,91</t>
+          <t>4,79; 11,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,43</t>
+          <t>8,99; 15,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,29; 124,37</t>
+          <t>32,34; 124,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,2; 150,98</t>
+          <t>43,74; 153,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>97,42; 266,2</t>
+          <t>100,52; 264,6</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,62</t>
+          <t>7,93; 11,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,13</t>
+          <t>8,57; 12,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,4</t>
+          <t>8,03; 12,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>61,81; 105,55</t>
+          <t>63,17; 106,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>86,46; 141,74</t>
+          <t>86,27; 138,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>61,23; 106,94</t>
+          <t>61,19; 106,28</t>
         </is>
       </c>
     </row>
